--- a/Pramod Form-12BB-in-Excel-Format.xlsx
+++ b/Pramod Form-12BB-in-Excel-Format.xlsx
@@ -1,19 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pramodsingh/Psingh_Master/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="14280" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>FORM NO.12BB</t>
   </si>
@@ -190,35 +207,27 @@
   </si>
   <si>
     <t>Full Name: PRAMOD SINGH</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="&quot; &quot;&quot;$&quot;* #,##0.00&quot; &quot;;&quot; &quot;&quot;$&quot;* (#,##0.00);&quot; &quot;&quot;$&quot;* &quot;-&quot;??&quot; &quot;"/>
-    <numFmt numFmtId="60" formatCode="&quot; &quot;* #,##0&quot; &quot;;&quot;-&quot;* #,##0&quot; &quot;;&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot; &quot;&quot;$&quot;* #,##0.00&quot; &quot;;&quot; &quot;&quot;$&quot;* \(#,##0.00\);&quot; &quot;&quot;$&quot;* &quot;-&quot;??&quot; &quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot; &quot;* #,##0&quot; &quot;;&quot;-&quot;* #,##0&quot; &quot;;&quot; &quot;* &quot;-&quot;??&quot; &quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -234,7 +243,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -719,319 +728,345 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="96">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1157,7 +1192,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1166,7 +1201,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1175,7 +1210,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1249,7 +1284,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1257,7 +1292,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1276,7 +1311,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1306,7 +1341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,7 +1367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,7 +1393,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1384,7 +1419,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1410,7 +1445,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1436,7 +1471,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1462,7 +1497,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1488,7 +1523,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1514,7 +1549,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1527,9 +1562,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1544,7 +1585,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1552,7 +1593,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1571,7 +1612,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1597,7 +1638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1623,7 +1664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1649,7 +1690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1675,7 +1716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1701,7 +1742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1727,7 +1768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1753,7 +1794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1779,7 +1820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1805,7 +1846,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1818,9 +1859,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1834,7 +1881,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1853,7 +1900,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1883,7 +1930,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1909,7 +1956,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1935,7 +1982,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1961,7 +2008,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1987,7 +2034,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2013,7 +2060,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2039,7 +2086,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2065,7 +2112,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2091,7 +2138,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2104,550 +2151,538 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3281" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.5" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="14.5" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" ht="14.5" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="16">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" ht="14.5" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="22">
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="91"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="14.65" customHeight="1">
-      <c r="A9" t="s" s="25">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s" s="26">
+      <c r="B9" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" t="s" s="28">
+      <c r="C9" s="77"/>
+      <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s" s="29">
+      <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="30">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="26">
+      <c r="B10" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" t="s" s="28">
+      <c r="C10" s="77"/>
+      <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="29">
+      <c r="E10" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="31">
+    <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>1</v>
       </c>
-      <c r="B11" t="s" s="32">
+      <c r="B11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" t="s" s="37">
+      <c r="C11" s="53"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39">
+      <c r="C12" s="41"/>
+      <c r="D12" s="16">
         <v>147000</v>
       </c>
-      <c r="E12" t="s" s="40">
+      <c r="E12" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="14.65" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" t="s" s="37">
+    <row r="13" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" t="s" s="43">
+      <c r="C13" s="41"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="42"/>
-    </row>
-    <row r="15" ht="29.25" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" t="s" s="43">
+      <c r="C14" s="45"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" t="s" s="41">
+      <c r="C15" s="45"/>
+      <c r="D15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E15" t="s" s="40">
+      <c r="E15" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" t="s" s="37">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47">
+      <c r="C16" s="42"/>
+      <c r="D16" s="21">
         <v>129000</v>
       </c>
-      <c r="E16" t="s" s="40">
+      <c r="E16" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="14.65" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" t="s" s="37">
+    <row r="17" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="42"/>
-    </row>
-    <row r="18" ht="14.65" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" t="s" s="43">
+      <c r="C17" s="41"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="42"/>
-    </row>
-    <row r="19" ht="26.65" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" t="s" s="43">
+      <c r="C18" s="44"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" t="s" s="41">
+      <c r="C19" s="44"/>
+      <c r="D19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E19" t="s" s="40">
+      <c r="E19" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" ht="46.5" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" t="s" s="52">
+    <row r="20" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-    </row>
-    <row r="21" ht="14.65" customHeight="1">
-      <c r="A21" s="56">
+      <c r="C20" s="51"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25">
         <v>2</v>
       </c>
-      <c r="B21" t="s" s="57">
+      <c r="B21" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
-    </row>
-    <row r="22" ht="14.65" customHeight="1">
-      <c r="A22" s="31">
+      <c r="C21" s="49"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
         <v>3</v>
       </c>
-      <c r="B22" t="s" s="61">
+      <c r="B22" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="35"/>
-    </row>
-    <row r="23" ht="14.65" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" t="s" s="43">
+      <c r="C22" s="47"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45">
+      <c r="C23" s="45"/>
+      <c r="D23" s="20">
         <v>184198</v>
       </c>
-      <c r="E23" s="42"/>
-    </row>
-    <row r="24" ht="14.65" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" t="s" s="43">
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" t="s" s="41">
+      <c r="C24" s="45"/>
+      <c r="D24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="42"/>
-    </row>
-    <row r="25" ht="14.65" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" t="s" s="43">
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="42"/>
-    </row>
-    <row r="26" ht="14.65" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" t="s" s="43">
+      <c r="C25" s="45"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="42"/>
-    </row>
-    <row r="27" ht="14.65" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" t="s" s="43">
+      <c r="C26" s="45"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="42"/>
-    </row>
-    <row r="28" ht="14.65" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" t="s" s="43">
+      <c r="C27" s="45"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="42"/>
-    </row>
-    <row r="29" ht="14.65" customHeight="1">
-      <c r="A29" s="51"/>
-      <c r="B29" t="s" s="52">
+      <c r="C28" s="45"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22"/>
+      <c r="B29" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="55"/>
-    </row>
-    <row r="30" ht="14.65" customHeight="1">
-      <c r="A30" s="31">
+      <c r="C29" s="51"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
         <v>4</v>
       </c>
-      <c r="B30" t="s" s="61">
+      <c r="B30" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
-    </row>
-    <row r="31" ht="14.65" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" t="s" s="43">
+      <c r="C30" s="47"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="42"/>
-    </row>
-    <row r="32" ht="14.65" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" t="s" s="43">
+      <c r="C31" s="45"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="42"/>
-    </row>
-    <row r="33" ht="14.65" customHeight="1">
-      <c r="A33" s="36"/>
-      <c r="B33" t="s" s="67">
+      <c r="C32" s="58"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C33" t="s" s="68">
+      <c r="C33" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="20">
         <v>95480</v>
       </c>
-      <c r="E33" s="42"/>
-    </row>
-    <row r="34" ht="14.65" customHeight="1">
-      <c r="A34" s="36"/>
-      <c r="B34" t="s" s="67">
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C34" t="s" s="68">
+      <c r="C34" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="42"/>
-    </row>
-    <row r="35" ht="14.65" customHeight="1">
-      <c r="A35" s="36"/>
-      <c r="B35" t="s" s="67">
+      <c r="D34" s="20"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C35" t="s" s="68">
+      <c r="C35" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="42"/>
-    </row>
-    <row r="36" ht="14.65" customHeight="1">
-      <c r="A36" s="36"/>
-      <c r="B36" t="s" s="67">
+      <c r="D35" s="20"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C36" t="s" s="68">
+      <c r="C36" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="45"/>
-      <c r="E36" s="42"/>
-    </row>
-    <row r="37" ht="14.65" customHeight="1">
-      <c r="A37" s="36"/>
-      <c r="B37" t="s" s="43">
+      <c r="D36" s="20"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="42"/>
-    </row>
-    <row r="38" ht="14.65" customHeight="1">
-      <c r="A38" s="36"/>
-      <c r="B38" t="s" s="43">
+      <c r="C37" s="58"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="42"/>
-    </row>
-    <row r="39" ht="31.5" customHeight="1">
-      <c r="A39" s="36"/>
-      <c r="B39" t="s" s="43">
+      <c r="C38" s="58"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="42"/>
-    </row>
-    <row r="40" ht="14.65" customHeight="1">
-      <c r="A40" s="36"/>
-      <c r="B40" t="s" s="69">
+      <c r="C39" s="45"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="42"/>
-    </row>
-    <row r="41" ht="14.65" customHeight="1">
-      <c r="A41" s="36"/>
-      <c r="B41" t="s" s="69">
+      <c r="C40" s="65"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="42"/>
-    </row>
-    <row r="42" ht="14.65" customHeight="1">
-      <c r="A42" s="36"/>
-      <c r="B42" t="s" s="69">
+      <c r="C41" s="65"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="70"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="42"/>
-    </row>
-    <row r="43" ht="14.65" customHeight="1">
-      <c r="A43" s="51"/>
-      <c r="B43" t="s" s="71">
+      <c r="C42" s="65"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="55"/>
-    </row>
-    <row r="44" ht="14.65" customHeight="1">
-      <c r="A44" t="s" s="30">
+      <c r="C43" s="60"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="74"/>
-    </row>
-    <row r="45" ht="33.75" customHeight="1">
-      <c r="A45" t="s" s="75">
+      <c r="B44" s="89"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="90"/>
+    </row>
+    <row r="45" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="77"/>
-    </row>
-    <row r="46" ht="8.5" customHeight="1">
-      <c r="A46" t="s" s="78">
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="87"/>
+    </row>
+    <row r="46" spans="1:5" ht="8.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="81"/>
-    </row>
-    <row r="47" ht="26.05" customHeight="1">
-      <c r="A47" s="82"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="83"/>
-    </row>
-    <row r="48" ht="14.65" customHeight="1">
-      <c r="A48" t="s" s="84">
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="37"/>
+    </row>
+    <row r="47" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="63"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
+    </row>
+    <row r="48" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" t="s" s="86">
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="42"/>
-    </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" t="s" s="87">
+      <c r="E48" s="95"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" t="s" s="89">
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="90"/>
+      <c r="E49" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A46:C47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B10:C10"/>
@@ -2664,17 +2699,38 @@
     <mergeCell ref="A44:E44"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A46:C47"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A7:E7"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
-  <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.70866099999999999" right="0.70866099999999999" top="0.748031" bottom="0.748031" header="0.31496099999999999" footer="0.31496099999999999"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2682,189 +2738,199 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="91" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="91" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="91" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="91" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="91" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="91" customWidth="1"/>
+    <col min="1" max="5" width="8.83203125" style="33" customWidth="1"/>
+    <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="93" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="93" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="93" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="93" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="93" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="93" customWidth="1"/>
+    <col min="1" max="5" width="8.83203125" style="35" customWidth="1"/>
+    <col min="6" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
